--- a/CP047/Default.xlsx
+++ b/CP047/Default.xlsx
@@ -405,11 +405,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
@@ -427,10 +427,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="FFFFFF"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="283845"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -738,7 +738,7 @@
   <dimension ref="A1:Y6"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="13.5"/>
@@ -860,45 +860,45 @@
       <c s="1" t="s">
         <v>50</v>
       </c>
+      <c s="4" t="s">
+        <v>24</v>
+      </c>
+      <c s="4" t="s">
+        <v>24</v>
+      </c>
+      <c s="4" t="s">
+        <v>51</v>
+      </c>
+      <c s="1" t="s">
+        <v>12</v>
+      </c>
+      <c s="1" t="s">
+        <v>36</v>
+      </c>
+      <c s="1"/>
+      <c s="1" t="s">
+        <v>60</v>
+      </c>
+      <c s="1" t="s">
+        <v>46</v>
+      </c>
+      <c s="1"/>
+      <c s="1" t="s">
+        <v>15</v>
+      </c>
+      <c s="1" t="s">
+        <v>17</v>
+      </c>
+      <c s="1" t="s">
+        <v>46</v>
+      </c>
+      <c s="1" t="s">
+        <v>28</v>
+      </c>
       <c s="5" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c s="5" t="s">
-        <v>24</v>
-      </c>
-      <c s="5" t="s">
-        <v>51</v>
-      </c>
-      <c s="1" t="s">
-        <v>12</v>
-      </c>
-      <c s="1" t="s">
-        <v>36</v>
-      </c>
-      <c s="1"/>
-      <c s="1" t="s">
-        <v>60</v>
-      </c>
-      <c s="1" t="s">
-        <v>46</v>
-      </c>
-      <c s="1"/>
-      <c s="1" t="s">
-        <v>15</v>
-      </c>
-      <c s="1" t="s">
-        <v>17</v>
-      </c>
-      <c s="1" t="s">
-        <v>46</v>
-      </c>
-      <c s="1" t="s">
-        <v>28</v>
-      </c>
-      <c s="4" t="s">
-        <v>61</v>
-      </c>
-      <c s="4" t="s">
         <v>19</v>
       </c>
       <c s="1"/>
@@ -1139,7 +1139,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="13.5"/>
@@ -1213,7 +1213,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="13.5"/>
@@ -1239,7 +1239,7 @@
       <c s="1" t="s">
         <v>49</v>
       </c>
-      <c s="4" t="s">
+      <c s="5" t="s">
         <v>31</v>
       </c>
       <c s="3"/>
